--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3966011.828352654</v>
+        <v>3961709.666456189</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.8333590606439</v>
+        <v>43.98786165864723</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>187.52558716632</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>82.11714889713588</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>83.41747001683163</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>111.3491047506177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.276240888003622</v>
+      </c>
+      <c r="X4" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.229934453756</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>191.1660358352159</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>212.6437118188371</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>103.8974541908713</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>100.0648951350342</v>
+        <v>137.0405361008914</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419592</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021611985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057159</v>
+        <v>5.686931024057174</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.3408100681055</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.3839109156126</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>385.5156796261418</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>196.6997841156788</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>24.55276019063697</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>136.2332127756345</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.1498983934891</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>146.6281161973735</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>193.7914408079633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>35.01782305658435</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>138.9514371171571</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>166.6594061764988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>71.05846343488149</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>60.42721558712923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>251.7801198313574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>122.8199531272432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.9017229193759</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
-        <v>172.2213099390679</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>7.069540131687629</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>271.3147947236899</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148102</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
@@ -4333,49 +4333,49 @@
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>578.2426392372652</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036626</v>
+        <v>578.2426392372652</v>
       </c>
       <c r="U2" t="n">
-        <v>359.7826784871777</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871777</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871777</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871777</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871777</v>
+        <v>388.8228542207804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>533.4995072678432</v>
+        <v>581.8870116452117</v>
       </c>
       <c r="C3" t="n">
-        <v>359.0464779867162</v>
+        <v>407.4339823640847</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>258.4995727028335</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>99.26211769737796</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>533.4995072678432</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>533.4995072678432</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y3" t="n">
-        <v>533.4995072678432</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423.1417032603748</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639639</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N4" t="n">
-        <v>481.2032875586207</v>
+        <v>488.6815517114714</v>
       </c>
       <c r="O4" t="n">
-        <v>643.9414909951709</v>
+        <v>651.4197551480215</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603748</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603748</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="U4" t="n">
-        <v>423.1417032603748</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603748</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="W4" t="n">
-        <v>423.1417032603748</v>
+        <v>744.4262647644218</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1417032603748</v>
+        <v>555.006479747937</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.1417032603748</v>
+        <v>365.5866947314522</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1065.856850471454</v>
+        <v>1044.162228265775</v>
       </c>
       <c r="C5" t="n">
-        <v>1065.856850471454</v>
+        <v>851.0652223716179</v>
       </c>
       <c r="D5" t="n">
-        <v>1065.856850471454</v>
+        <v>851.0652223716179</v>
       </c>
       <c r="E5" t="n">
-        <v>713.099340922205</v>
+        <v>498.3077128223695</v>
       </c>
       <c r="F5" t="n">
-        <v>360.3418313729564</v>
+        <v>145.550203273121</v>
       </c>
       <c r="G5" t="n">
-        <v>347.6769462812585</v>
+        <v>132.885318181423</v>
       </c>
       <c r="H5" t="n">
         <v>132.885318181423</v>
@@ -4567,19 +4567,19 @@
         <v>27.93839475630048</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874625</v>
+        <v>80.9902034087462</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620538</v>
+        <v>211.2396305620537</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458673</v>
+        <v>409.7273242458672</v>
       </c>
       <c r="M5" t="n">
         <v>662.2525653973839</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365768</v>
+        <v>923.4777373365764</v>
       </c>
       <c r="O5" t="n">
         <v>1156.809998477535</v>
@@ -4603,16 +4603,16 @@
         <v>1396.919737815024</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471454</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="W5" t="n">
-        <v>1065.856850471454</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="X5" t="n">
-        <v>1065.856850471454</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1065.856850471454</v>
+        <v>1396.919737815024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.3258140164479</v>
+        <v>315.2975883578461</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8727847353208</v>
+        <v>315.2975883578461</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8727847353208</v>
+        <v>166.3631786965948</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="I6" t="n">
         <v>27.93839475630048</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143087</v>
+        <v>165.5479665784356</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379373</v>
+        <v>265.5449014249421</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824499</v>
+        <v>446.3256618694545</v>
       </c>
       <c r="M6" t="n">
-        <v>667.2331719916683</v>
+        <v>676.6451506028665</v>
       </c>
       <c r="N6" t="n">
-        <v>918.057177170573</v>
+        <v>927.4691557817712</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459968</v>
+        <v>1134.704322874855</v>
       </c>
       <c r="P6" t="n">
         <v>1348.579058983952</v>
@@ -4670,28 +4670,28 @@
         <v>1396.919737815024</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815024</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.919737815024</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="T6" t="n">
-        <v>1200.755331538036</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="U6" t="n">
-        <v>972.6300079702504</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="V6" t="n">
-        <v>972.6300079702504</v>
+        <v>1153.362081076602</v>
       </c>
       <c r="W6" t="n">
-        <v>718.3926512420487</v>
+        <v>899.1247243484008</v>
       </c>
       <c r="X6" t="n">
-        <v>510.5411510365159</v>
+        <v>691.273224142868</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.5411510365159</v>
+        <v>483.5129253779141</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.0006912371229</v>
+        <v>647.5386329486215</v>
       </c>
       <c r="C7" t="n">
-        <v>451.064508309216</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
-        <v>300.9478688968803</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>153.0347753144871</v>
+        <v>180.5727170259858</v>
       </c>
       <c r="F7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="G7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807539</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="J7" t="n">
         <v>27.93839475630048</v>
@@ -4761,16 +4761,16 @@
         <v>1182.690698049273</v>
       </c>
       <c r="V7" t="n">
-        <v>928.0062098433858</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="W7" t="n">
-        <v>840.793270380653</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="X7" t="n">
-        <v>840.793270380653</v>
+        <v>1049.979676922391</v>
       </c>
       <c r="Y7" t="n">
-        <v>620.0006912371229</v>
+        <v>829.1870977788612</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218655</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218655</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218655</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>918.0161179218655</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>507.030213132258</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>249.9334371899009</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218655</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218655</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8338829770711</v>
+        <v>689.9034178578795</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>520.9672349299726</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>370.8505955176369</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>222.9375019352437</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>76.04755443733339</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784815</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.884232784815</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1173.274926950841</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.4823478073108</v>
+        <v>871.5518826881192</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446605</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253734</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>119.2902967703778</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176862</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970975</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,73 +5649,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2344.545841391669</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2124.944376414609</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W19" t="n">
-        <v>1360.39208240939</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1132.402531511373</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
         <v>1132.402531511373</v>
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1501.108204237296</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2622.596178821928</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3117.921785037687</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3715.300272664238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2878.798005073648</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2878.798005073648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3281.239049047418</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3060.446469903888</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7438,16 +7438,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7456,7 +7456,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118212</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2383.002557118212</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2980.381044744764</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3607.979008299371</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4159.888738538658</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4583.511888033726</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835325</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711968</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888038</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1970.320130882543</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.635642676656</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.218472639696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.228921741679</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1703.405732304761</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>125.3407986328607</v>
+        <v>117.7869964582638</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898932</v>
+        <v>41.92993463898935</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>116.5839862381883</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>77.06594868314272</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>67.55889958092226</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374748</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>265.030432851515</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.6820817884482</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31.91821458107387</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>146.0084629450602</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>147.5715612194339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>215.1260109543626</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>88.18825743108312</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.357523492470591</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>3.532239727193229</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
-        <v>53.48834544996924</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.1149342575564</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>14.86967966555426</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>301519.8707731204</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>6.983620031470698e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.5244526729</v>
+        <v>41617.52445267283</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019537</v>
+        <v>73739.30240019539</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
         <v>229588.1389806967</v>
@@ -26426,19 +26426,19 @@
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26450,13 +26450,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184287</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104771.7814988882</v>
+        <v>-104771.7814988885</v>
       </c>
       <c r="C6" t="n">
         <v>342604.1454405831</v>
       </c>
       <c r="D6" t="n">
-        <v>281428.8959533799</v>
+        <v>281428.89595338</v>
       </c>
       <c r="E6" t="n">
-        <v>184931.8201297101</v>
+        <v>184584.4408753537</v>
       </c>
       <c r="F6" t="n">
-        <v>692417.261754256</v>
+        <v>692069.8824998996</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998994</v>
       </c>
       <c r="H6" t="n">
-        <v>692417.2617542568</v>
+        <v>692069.8824998992</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998995</v>
       </c>
       <c r="J6" t="n">
-        <v>643352.3170257119</v>
+        <v>643004.9377713547</v>
       </c>
       <c r="K6" t="n">
-        <v>650799.7373015835</v>
+        <v>650452.3580472266</v>
       </c>
       <c r="L6" t="n">
-        <v>618677.9593540608</v>
+        <v>618330.580099704</v>
       </c>
       <c r="M6" t="n">
-        <v>559809.9680253296</v>
+        <v>559462.5887709728</v>
       </c>
       <c r="N6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998994</v>
       </c>
       <c r="O6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998995</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998996</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955707</v>
+        <v>687.6696919955706</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>139.199751082666</v>
@@ -26968,7 +26968,7 @@
         <v>246.3952001219685</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.373774279594647e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>161.704347287436</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.9004826028367</v>
+        <v>338.7459800048333</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.32791666750288</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>61.65174237655225</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>55.89771634801014</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917622</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>284.2467574485874</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972462</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>174.1068559357916</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850576</v>
+        <v>32.70043561850582</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795542</v>
+        <v>57.64611128795548</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.51914162095156</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>57.58018532036672</v>
+        <v>20.60454435450958</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419593</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611971</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27794,7 +27794,7 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.1821882684855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>94.32574447342458</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>26.03202314681215</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>104.3187684467266</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.7538398541672</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>89.47644261340261</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.102654806131261e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>28.31194867597843</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
         <v>234.6335900342073</v>
@@ -31293,19 +31293,19 @@
         <v>351.6549289776144</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>436.2590348526272</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904211</v>
+        <v>485.422234390421</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361796</v>
+        <v>493.2768736361795</v>
       </c>
       <c r="O5" t="n">
         <v>465.7873640893214</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>397.5387388787057</v>
       </c>
       <c r="Q5" t="n">
         <v>298.5350369909012</v>
@@ -31314,7 +31314,7 @@
         <v>173.6556031751428</v>
       </c>
       <c r="S5" t="n">
-        <v>62.996072789343</v>
+        <v>62.99607278934299</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848486</v>
@@ -31363,43 +31363,43 @@
         <v>14.28536473371931</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721916</v>
+        <v>50.92648190721915</v>
       </c>
       <c r="J6" t="n">
         <v>139.7461588233641</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>238.84844386982</v>
       </c>
       <c r="L6" t="n">
         <v>321.161208511705</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>374.7799821375859</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>384.6992930721259</v>
       </c>
       <c r="O6" t="n">
         <v>351.92469605362</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>282.4505948122939</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103116</v>
+        <v>91.83634113103115</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>27.47435043020037</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603106</v>
+        <v>5.961966480603105</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729778</v>
+        <v>0.09731174886729776</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,10 +31442,10 @@
         <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871063</v>
+        <v>37.29198919871062</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261562</v>
+        <v>87.6722490926156</v>
       </c>
       <c r="K7" t="n">
         <v>144.0724371098916</v>
@@ -31460,7 +31460,7 @@
         <v>189.7630151698598</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433956</v>
       </c>
       <c r="P7" t="n">
         <v>149.97963249687</v>
@@ -31469,16 +31469,16 @@
         <v>103.8381234913312</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>55.75761141983756</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>21.61086556648374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457674</v>
+        <v>5.298438610457673</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.06763964183562997</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>718.5832682008307</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206121</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>718.5832682008307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>690.2058188111474</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>381.6404378718154</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>277.2922978908106</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.3870916262909</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>107.2331895657668</v>
+        <v>99.67938739116998</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752106</v>
+        <v>53.58768550752103</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>131.5650779326338</v>
       </c>
       <c r="L5" t="n">
         <v>200.49261988264</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>255.0760011631483</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395887</v>
+        <v>263.8638100395886</v>
       </c>
       <c r="O5" t="n">
         <v>235.6891526676347</v>
@@ -34956,7 +34956,7 @@
         <v>166.3057431234362</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645175</v>
+        <v>76.22934711645169</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669736</v>
+        <v>138.9995674971062</v>
       </c>
       <c r="K6" t="n">
         <v>101.0070048954611</v>
@@ -35023,19 +35023,19 @@
         <v>182.6068287318308</v>
       </c>
       <c r="M6" t="n">
-        <v>349.229934453756</v>
+        <v>232.6459482155676</v>
       </c>
       <c r="N6" t="n">
         <v>253.3575809887926</v>
       </c>
       <c r="O6" t="n">
-        <v>286.3944002923183</v>
+        <v>209.3284516091755</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>216.0350869788859</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623406</v>
+        <v>48.82896851623403</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963679</v>
+        <v>17.67608023963678</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272323</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>600.455114847638</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>587.2415561174975</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394538</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>587.2415561174975</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>547.609574366703</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.7989988974564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>134.6960534463662</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.4053175402694</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3961709.666456189</v>
+        <v>3963470.196758974</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.98786165864723</v>
+        <v>43.98786165864701</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>83.41747001683163</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.0650091929396</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.276240888003622</v>
+        <v>2.276240888003397</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.229934453756</v>
+        <v>347.732201281962</v>
       </c>
       <c r="C5" t="n">
-        <v>191.1660358352159</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.229934453756</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.229934453756</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537553</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>137.0405361008914</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611985</v>
+        <v>8.321493021612071</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>208.3965806277195</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>160.2498298584902</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057174</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>131.3839109156126</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920584</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>196.6997841156788</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110095</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063697</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.6281161973735</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>101.3930697667061</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.01782305658435</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>185.4048731212358</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>120.1447214650593</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271973</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271973</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271973</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271973</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="F2" t="n">
         <v>154.9708857107125</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372647</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372652</v>
+        <v>388.82285422078</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.82285422078</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.82285422078</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.82285422078</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.82285422078</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.82285422078</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452117</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="C3" t="n">
-        <v>407.4339823640847</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="D3" t="n">
-        <v>258.4995727028335</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>99.26211769737796</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>678.4091819884288</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>678.4091819884288</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>678.4091819884288</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652798</v>
+        <v>488.9893969719441</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652798</v>
+        <v>488.9893969719441</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652798</v>
+        <v>488.9893969719441</v>
       </c>
     </row>
     <row r="4">
@@ -4467,67 +4467,67 @@
         <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>89.66773767220369</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>262.5553157873387</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>448.2056470819953</v>
       </c>
       <c r="N4" t="n">
-        <v>488.6815517114714</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>651.4197551480215</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="W4" t="n">
-        <v>744.4262647644218</v>
+        <v>744.4262647644216</v>
       </c>
       <c r="X4" t="n">
         <v>555.006479747937</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1044.162228265775</v>
+        <v>361.854693162645</v>
       </c>
       <c r="C5" t="n">
-        <v>851.0652223716179</v>
+        <v>361.854693162645</v>
       </c>
       <c r="D5" t="n">
-        <v>851.0652223716179</v>
+        <v>361.854693162645</v>
       </c>
       <c r="E5" t="n">
-        <v>498.3077128223695</v>
+        <v>361.854693162645</v>
       </c>
       <c r="F5" t="n">
-        <v>145.550203273121</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>342.2443073217436</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9902034087462</v>
+        <v>80.99020340874597</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620537</v>
+        <v>211.2396305620532</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458672</v>
+        <v>409.7273242458658</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973839</v>
+        <v>662.2525653973822</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365764</v>
+        <v>923.4777373365745</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477535</v>
+        <v>1156.809998477532</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169737</v>
+        <v>1321.452684169734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815024</v>
+        <v>1065.85685047145</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815024</v>
+        <v>713.0993409222026</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815024</v>
+        <v>713.0993409222026</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815024</v>
+        <v>713.0993409222026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>315.2975883578461</v>
+        <v>508.1634370159979</v>
       </c>
       <c r="C6" t="n">
-        <v>315.2975883578461</v>
+        <v>333.710407734871</v>
       </c>
       <c r="D6" t="n">
-        <v>166.3631786965948</v>
+        <v>333.710407734871</v>
       </c>
       <c r="E6" t="n">
-        <v>27.93839475630048</v>
+        <v>174.4729527294155</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J6" t="n">
-        <v>165.5479665784356</v>
+        <v>40.7178415914307</v>
       </c>
       <c r="K6" t="n">
-        <v>265.5449014249421</v>
+        <v>332.4282120100543</v>
       </c>
       <c r="L6" t="n">
-        <v>446.3256618694545</v>
+        <v>513.2089724545665</v>
       </c>
       <c r="M6" t="n">
-        <v>676.6451506028665</v>
+        <v>743.5284611879781</v>
       </c>
       <c r="N6" t="n">
-        <v>927.4691557817712</v>
+        <v>994.3524663668824</v>
       </c>
       <c r="O6" t="n">
-        <v>1134.704322874855</v>
+        <v>1201.587633459966</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983952</v>
+        <v>1348.57905898395</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308342</v>
       </c>
       <c r="V6" t="n">
-        <v>1153.362081076602</v>
+        <v>1178.012592714686</v>
       </c>
       <c r="W6" t="n">
-        <v>899.1247243484008</v>
+        <v>923.7752359864846</v>
       </c>
       <c r="X6" t="n">
-        <v>691.273224142868</v>
+        <v>715.9237357809518</v>
       </c>
       <c r="Y6" t="n">
-        <v>483.5129253779141</v>
+        <v>508.1634370159979</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5386329486215</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6024500207146</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="D7" t="n">
-        <v>328.4858106083789</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="E7" t="n">
-        <v>180.5727170259858</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="F7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="G7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="H7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630048</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.523310587469</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208643</v>
+        <v>358.3569215208639</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014279</v>
+        <v>589.9861665014273</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750254</v>
+        <v>821.5424021750246</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767885</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612031</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049273</v>
+        <v>928.0062098433845</v>
       </c>
       <c r="W7" t="n">
-        <v>1182.690698049273</v>
+        <v>638.5890398064239</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.979676922391</v>
+        <v>410.5994889084066</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.1870977788612</v>
+        <v>189.8069097648765</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148155</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>261.597783425208</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371899009</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4843,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4871,13 +4871,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,19 +4886,19 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578795</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299726</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176369</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352437</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.344461831649</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881192</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,43 +5047,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>465.7244058380354</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>465.7244058380354</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5360,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5466,22 +5466,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2344.545841391669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2124.944376414609</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1835.869149758807</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1581.18466155292</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,34 +5889,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5971,31 +5971,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6466,10 +6466,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,10 +7207,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7414,19 +7414,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,25 +7651,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>89.52419948887511</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>117.7869964582638</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898935</v>
+        <v>41.92993463898949</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213307</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>67.55889958092226</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>84.94186588374748</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.89602209489539</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>45.04089287986308</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>146.0084629450602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1181252153552</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.8815645365853</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642836</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.506142712</v>
+        <v>178997.5061427114</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731204</v>
+        <v>301519.8707731214</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267283</v>
+        <v>41617.52445267268</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019539</v>
+        <v>73739.30240019553</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,7 +26420,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806967</v>
+        <v>229588.1389806969</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26432,10 +26432,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26447,13 +26447,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>69851.97930029174</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-104771.7814988885</v>
       </c>
       <c r="C6" t="n">
-        <v>342604.1454405831</v>
+        <v>342604.1454405834</v>
       </c>
       <c r="D6" t="n">
-        <v>281428.89595338</v>
+        <v>281428.8959533793</v>
       </c>
       <c r="E6" t="n">
-        <v>184584.4408753537</v>
+        <v>184897.0822042749</v>
       </c>
       <c r="F6" t="n">
-        <v>692069.8824998996</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="G6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="H6" t="n">
-        <v>692069.8824998992</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="I6" t="n">
-        <v>692069.8824998995</v>
+        <v>692382.5238288206</v>
       </c>
       <c r="J6" t="n">
-        <v>643004.9377713547</v>
+        <v>643317.5791002762</v>
       </c>
       <c r="K6" t="n">
-        <v>650452.3580472266</v>
+        <v>650764.999376148</v>
       </c>
       <c r="L6" t="n">
-        <v>618330.580099704</v>
+        <v>618643.2214286252</v>
       </c>
       <c r="M6" t="n">
-        <v>559462.5887709728</v>
+        <v>559775.2300998942</v>
       </c>
       <c r="N6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="O6" t="n">
-        <v>692069.8824998995</v>
+        <v>692382.5238288204</v>
       </c>
       <c r="P6" t="n">
-        <v>692069.8824998996</v>
+        <v>692382.5238288208</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955706</v>
+        <v>687.66969199557</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.229934453756</v>
+        <v>349.2299344537553</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.199751082666</v>
+        <v>139.1997510826656</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219685</v>
+        <v>246.3952001219694</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874354</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462836</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874354</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462833</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874354</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462836</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.7459800048333</v>
+        <v>338.7459800048335</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988694</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>61.65174237655225</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>151.3445885990616</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>284.2467574485874</v>
+        <v>284.2467574485876</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>38.18406822271731</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>31.05906618577495</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972462</v>
+        <v>35.0016403815186</v>
       </c>
       <c r="C5" t="n">
-        <v>174.1068559357916</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850582</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795548</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27675,10 +27675,10 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.0110342636577343</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>20.60454435450958</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>97.95007950277717</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419593</v>
+        <v>38.47015094419597</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27754,7 +27754,7 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>24.40400652170572</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>19.58215032344705</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057245</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27833,13 +27833,13 @@
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>94.32574447342458</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802033</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>104.3187684467266</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546822</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541672</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.102654806131261e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354051</v>
+        <v>2.764501274354048</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597843</v>
+        <v>28.3119486759784</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>234.6335900342071</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776144</v>
+        <v>351.654928977614</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526272</v>
+        <v>436.2590348526268</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390421</v>
+        <v>485.4222343904206</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361795</v>
+        <v>493.2768736361791</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893214</v>
+        <v>465.787364089321</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787057</v>
+        <v>397.5387388787054</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909012</v>
+        <v>298.5350369909009</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>173.6556031751426</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934299</v>
+        <v>62.99607278934294</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2211601019483238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782924</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721915</v>
+        <v>50.92648190721911</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.7461588233639</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>238.8484438698198</v>
       </c>
       <c r="L6" t="n">
-        <v>321.161208511705</v>
+        <v>321.1612085117047</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375859</v>
+        <v>374.7799821375856</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721259</v>
+        <v>384.6992930721256</v>
       </c>
       <c r="O6" t="n">
-        <v>351.92469605362</v>
+        <v>351.9246960536197</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122939</v>
+        <v>282.4505948122937</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022554</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103115</v>
+        <v>91.83634113103106</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020037</v>
+        <v>27.47435043020035</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603105</v>
+        <v>5.9619664806031</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729776</v>
+        <v>0.09731174886729768</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.24006010031988</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871062</v>
+        <v>37.29198919871059</v>
       </c>
       <c r="J7" t="n">
-        <v>87.6722490926156</v>
+        <v>87.67224909261553</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098915</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>184.3631170966484</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>194.3850573619608</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.7630151698596</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>175.2768585433955</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968698</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983756</v>
+        <v>55.75761141983751</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>21.61086556648372</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457673</v>
+        <v>5.298438610457668</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562997</v>
+        <v>0.06763964183562991</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>75.41988959484657</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>99.67938739116998</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752103</v>
+        <v>53.58768550752083</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326338</v>
+        <v>131.5650779326335</v>
       </c>
       <c r="L5" t="n">
-        <v>200.49261988264</v>
+        <v>200.4926198826396</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631483</v>
+        <v>255.0760011631479</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395886</v>
+        <v>263.8638100395882</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676347</v>
+        <v>235.6891526676343</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234362</v>
+        <v>166.3057431234358</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645169</v>
+        <v>76.22934711645146</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971062</v>
+        <v>12.90853215669725</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954611</v>
+        <v>294.6569398167915</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318308</v>
+        <v>182.6068287318305</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155676</v>
+        <v>232.6459482155673</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887926</v>
+        <v>253.3575809887923</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091755</v>
+        <v>209.3284516091753</v>
       </c>
       <c r="P6" t="n">
-        <v>216.0350869788859</v>
+        <v>148.4761873979634</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623403</v>
+        <v>48.82896851623389</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840086</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569645</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238014</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>233.8951875490882</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574352</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617633</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963678</v>
+        <v>17.67608023963669</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5293621272323</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>388.6189266346379</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
